--- a/biology/Botanique/Macrosporium_martindalei/Macrosporium_martindalei.xlsx
+++ b/biology/Botanique/Macrosporium_martindalei/Macrosporium_martindalei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alternaria tenuissima est une espèce de champignons phytopathogènes de la famille des Pleosporaceae.
 </t>
@@ -511,11 +523,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Alternaria tenuissima (Kunze) Wiltshire, 1933[1]. L'espèce a été initialement classée dans le genre Helminthosporium sous le basionyme Helminthosporium tenuissimum par Gustav Kunze, en 1818[2], avant d'être déplacée dans le genre Alternaria par le mycologue Samuel Paul Wiltshire, en 1933[3].
-Synonymes
-Alternaria tenuissima a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Alternaria tenuissima (Kunze) Wiltshire, 1933. L'espèce a été initialement classée dans le genre Helminthosporium sous le basionyme Helminthosporium tenuissimum par Gustav Kunze, en 1818, avant d'être déplacée dans le genre Alternaria par le mycologue Samuel Paul Wiltshire, en 1933.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Macrosporium_martindalei</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Macrosporium_martindalei</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alternaria tenuissima a pour synonymes :
 Helminthosporium tenuissimum Kunze, 1818 (basionyme)
 Alternaria rumicicola R.L. Mathur, Agnihotri &amp; Tyagi, 1962
 Macrosporium amaranthi Peck, 1895
@@ -525,9 +574,43 @@
 Macrosporium martindalei Ellis &amp; G. Martin, 1884
 Alternaria amaranthi (Peck) J.M. Hook (1921), 1921
 Clasterosporium tenuissimum (Kunze) Sacc., 1886
-Macrosporium tenuissimum (Kunze) Fr., 1832
-Liste des variétés
-Selon MycoBank                                            (7 avril 2022)[1] :
+Macrosporium tenuissimum (Kunze) Fr., 1832</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Macrosporium_martindalei</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Macrosporium_martindalei</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (7 avril 2022) :
 Alternaria tenuissima var. alliicola T.Y. Zhang, 1999
 Alternaria tenuissima var. catharanthi T.Y. Zhang &amp; X.F. Lin, 1999
 Alternaria tenuissima var. godetiae Neerg., 1945
